--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3281.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3281.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7072918144452188</v>
+        <v>1.320001602172852</v>
       </c>
       <c r="B1">
-        <v>1.002517761889306</v>
+        <v>2.744488954544067</v>
       </c>
       <c r="C1">
-        <v>1.85958911825008</v>
+        <v>3.033463954925537</v>
       </c>
       <c r="D1">
-        <v>4.761346948006541</v>
+        <v>1.521171569824219</v>
       </c>
       <c r="E1">
-        <v>2.782666775027022</v>
+        <v>1.102577090263367</v>
       </c>
     </row>
   </sheetData>
